--- a/excel_with_subclasses/with_count/tide_with_count.xlsx
+++ b/excel_with_subclasses/with_count/tide_with_count.xlsx
@@ -555,7 +555,7 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:4">
